--- a/data/Демэкология (часть 1) (Общая экология 2024-2025).xlsx
+++ b/data/Демэкология (часть 1) (Общая экология 2024-2025).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="419">
   <si>
     <t>Id</t>
   </si>
@@ -1272,6 +1272,18 @@
   </si>
   <si>
     <t>Муха из семейства Hippoboscidae;Птица киви;Африканский слон;Азиатский слон</t>
+  </si>
+  <si>
+    <t>st138472@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зиннатуллина</t>
+  </si>
+  <si>
+    <t>st138471@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Астапова</t>
   </si>
 </sst>
 </file>
@@ -1284,14 +1296,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,28 +1758,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,127 +1791,125 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2064,8 +2070,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AI113" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI113" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AI115" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI115" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Id" dataDxfId="0"/>
     <tableColumn id="2" name="Время начала"/>
@@ -2365,10 +2371,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI113"/>
+  <dimension ref="A1:AI115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F114" sqref="D114:F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -11218,6 +11224,86 @@
         <v>1</v>
       </c>
       <c r="AI113" s="3"/>
+    </row>
+    <row r="114" spans="1:35">
+      <c r="A114" s="2"/>
+      <c r="D114" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F114" s="4">
+        <v>6</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="3"/>
+    </row>
+    <row r="115" spans="1:35">
+      <c r="A115" s="2"/>
+      <c r="D115" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="3"/>
+      <c r="AD115" s="3"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="3"/>
+      <c r="AG115" s="3"/>
+      <c r="AH115" s="2"/>
+      <c r="AI115" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Демэкология (часть 1) (Общая экология 2024-2025).xlsx
+++ b/data/Демэкология (часть 1) (Общая экология 2024-2025).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="423">
   <si>
     <t>Id</t>
   </si>
@@ -1284,6 +1284,18 @@
   </si>
   <si>
     <t>Астапова</t>
+  </si>
+  <si>
+    <t>st136654@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Сергеева</t>
+  </si>
+  <si>
+    <t>st136599@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Костригин</t>
   </si>
 </sst>
 </file>
@@ -2070,8 +2082,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AI115" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI115" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AI117" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AI117" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="35">
     <tableColumn id="1" name="Id" dataDxfId="0"/>
     <tableColumn id="2" name="Время начала"/>
@@ -2371,10 +2383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI115"/>
+  <dimension ref="A1:AI117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F114" sqref="D114:F115"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -11305,6 +11317,86 @@
       <c r="AH115" s="2"/>
       <c r="AI115" s="3"/>
     </row>
+    <row r="116" spans="1:35">
+      <c r="A116" s="2"/>
+      <c r="D116" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F116" s="2">
+        <v>8</v>
+      </c>
+      <c r="G116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="3"/>
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="3"/>
+      <c r="AG116" s="3"/>
+      <c r="AH116" s="2"/>
+      <c r="AI116" s="3"/>
+    </row>
+    <row r="117" spans="1:35">
+      <c r="A117" s="2"/>
+      <c r="D117" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F117" s="2">
+        <v>7</v>
+      </c>
+      <c r="G117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="3"/>
+      <c r="AG117" s="3"/>
+      <c r="AH117" s="2"/>
+      <c r="AI117" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
